--- a/wallets.xlsx
+++ b/wallets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\PycharmProjects\layerZeroTransfer\soft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE388742-4DD0-4EE2-B9FC-7A966464EB06}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD70F22-4A24-4694-88AC-B7A72B3A0E84}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" xr2:uid="{E878E003-869D-442F-947D-3970553C444D}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Destination</t>
   </si>
   <si>
-    <t>0x9A25ac9073A80d258AAa5F45E1D83a7A0Bb4060b</t>
-  </si>
-  <si>
     <t>PrivateKey</t>
   </si>
   <si>
@@ -45,13 +42,13 @@
     <t>Optimism</t>
   </si>
   <si>
-    <t>0x47537f67B73011Df12aFA1eD670F73C495EA1301</t>
-  </si>
-  <si>
-    <t>0.002</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t>0.001</t>
+  </si>
+  <si>
+    <t>0x5af2c455c5889333b321c6f55ff076ae56458d0f23ca4a6ded84b48a8e08c33a</t>
+  </si>
+  <si>
+    <t>0x77f97d0a55d2fa5425b4e0779f55ad41f55e202e7b85b2dde1fdff93f4380133</t>
   </si>
 </sst>
 </file>
@@ -417,7 +414,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -429,16 +426,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -446,10 +443,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -457,22 +454,19 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B3">
-        <v>4</v>
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
       <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/wallets.xlsx
+++ b/wallets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\PycharmProjects\layerZeroTransfer\soft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD70F22-4A24-4694-88AC-B7A72B3A0E84}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3BD0ED-04C4-4327-958C-F87897059DA7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" xr2:uid="{E878E003-869D-442F-947D-3970553C444D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4080" xr2:uid="{E878E003-869D-442F-947D-3970553C444D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Destination</t>
   </si>
@@ -43,12 +43,6 @@
   </si>
   <si>
     <t>0.001</t>
-  </si>
-  <si>
-    <t>0x5af2c455c5889333b321c6f55ff076ae56458d0f23ca4a6ded84b48a8e08c33a</t>
-  </si>
-  <si>
-    <t>0x77f97d0a55d2fa5425b4e0779f55ad41f55e202e7b85b2dde1fdff93f4380133</t>
   </si>
 </sst>
 </file>
@@ -414,7 +408,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -442,9 +436,6 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -456,9 +447,6 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
